--- a/rounds/sample.xlsx
+++ b/rounds/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjc.EAGLE\Documents\GitHub\iamwhere.github.io\rounds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD5C7E2-2218-40B8-815E-C7F55E9EE42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3314AF5C-305F-4D2C-9ADF-0BA764323693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>round</t>
   </si>
@@ -42,6 +42,33 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
   </si>
 </sst>
 </file>
@@ -891,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,7 +931,7 @@
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -917,140 +944,167 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>42.345571720000002</v>
+        <v>9.1349758999999899</v>
       </c>
       <c r="C2" s="1">
-        <v>-71.098313399999995</v>
+        <v>7.4984317999999996</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>_xlfn.CONCAT("file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=", A2, "&amp;lat=", B2, "&amp;lng=", C2)</f>
-        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=1&amp;lat=42.34557172&amp;lng=-71.0983134</v>
+        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=1&amp;lat=9.13497589999999&amp;lng=7.4984318</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>39.077226459999999</v>
+        <v>43.725602401326697</v>
       </c>
       <c r="C3" s="1">
-        <v>-108.6075179</v>
+        <v>7.4183583423244803</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D10" si="0">_xlfn.CONCAT("file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=", A3, "&amp;lat=", B3, "&amp;lng=", C3)</f>
-        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=2&amp;lat=39.07722646&amp;lng=-108.6075179</v>
+        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=2&amp;lat=43.7256024013267&amp;lng=7.41835834232448</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>-16.381451599999998</v>
+        <v>6.9061292730669299</v>
       </c>
       <c r="C4" s="1">
-        <v>-67.999761100000001</v>
+        <v>79.947721909189099</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=3&amp;lat=-16.3814516&amp;lng=-67.9997611</v>
+        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=3&amp;lat=6.90612927306693&amp;lng=79.9477219091891</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>47.36835069</v>
+        <v>61.927782616545201</v>
       </c>
       <c r="C5" s="1">
-        <v>10.93612555</v>
+        <v>5.4833037935705802</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=4&amp;lat=47.36835069&amp;lng=10.93612555</v>
+        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=4&amp;lat=61.9277826165452&amp;lng=5.48330379357058</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20.930623400000002</v>
+        <v>38.772915856203703</v>
       </c>
       <c r="C6" s="1">
-        <v>-11.6241269</v>
+        <v>-7.0617526370442096</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=5&amp;lat=20.9306234&amp;lng=-11.6241269</v>
+        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=5&amp;lat=38.7729158562037&amp;lng=-7.06175263704421</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>-24.2514644</v>
+        <v>51.299682999999902</v>
       </c>
       <c r="C7" s="1">
-        <v>131.5832748</v>
+        <v>-117.050764</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=6&amp;lat=-24.2514644&amp;lng=131.5832748</v>
+        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=6&amp;lat=51.2996829999999&amp;lng=-117.050764</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>50.396526700000003</v>
+        <v>56.786577120132101</v>
       </c>
       <c r="C8" s="1">
-        <v>86.673428299999998</v>
+        <v>-5.18324403230796</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=7&amp;lat=50.3965267&amp;lng=86.6734283</v>
+        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=7&amp;lat=56.7865771201321&amp;lng=-5.18324403230796</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>50.550350190000003</v>
+        <v>23.806494484531001</v>
       </c>
       <c r="C9" s="1">
-        <v>21.63714409</v>
+        <v>90.419408657086194</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=8&amp;lat=50.55035019&amp;lng=21.63714409</v>
+        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=8&amp;lat=23.806494484531&amp;lng=90.4194086570862</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>38.627426100000001</v>
+        <v>9.5543853999999993</v>
       </c>
       <c r="C10" s="1">
-        <v>-28.079006199999998</v>
+        <v>-79.655609099999893</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=9&amp;lat=38.6274261&amp;lng=-28.0790062</v>
+        <v>file:///C:/Users/rjc.EAGLE/Documents/GitHub/iamwhere.github.io/rounds.html?param=217165498465184316848413169875646132156744316847516548756413213213216579876161879464651321686765487976496464645554548786121564878787888645161231132&amp;round=9&amp;lat=9.5543854&amp;lng=-79.6556090999999</v>
       </c>
     </row>
   </sheetData>
